--- a/Introduction_to_Bigdata/naver_news/naver_기업은행_result_0101_1031_2.xlsx
+++ b/Introduction_to_Bigdata/naver_news/naver_기업은행_result_0101_1031_2.xlsx
@@ -1942,397 +1942,397 @@
     <t>https://www.chosun.com/economy/stock-finance/2021/01/21/WDVPQG23IFFMPGYCL5WWCSUTEE/?utm_source=naver&amp;utm_medium=referral&amp;utm_campaign=naver-news</t>
   </si>
   <si>
-    <t>8면</t>
-  </si>
-  <si>
-    <t>1면</t>
-  </si>
-  <si>
-    <t>2021.10.31.</t>
-  </si>
-  <si>
-    <t>2021.10.27.</t>
-  </si>
-  <si>
-    <t>B5면</t>
-  </si>
-  <si>
-    <t>A16면</t>
-  </si>
-  <si>
-    <t>2021.10.13.</t>
-  </si>
-  <si>
-    <t>25면</t>
-  </si>
-  <si>
-    <t>2021.10.12.</t>
-  </si>
-  <si>
-    <t>2021.10.14.</t>
-  </si>
-  <si>
-    <t>17면</t>
-  </si>
-  <si>
-    <t>2021.10.20.</t>
-  </si>
-  <si>
-    <t>C2면</t>
-  </si>
-  <si>
-    <t>2021.09.28.</t>
-  </si>
-  <si>
-    <t>24면</t>
-  </si>
-  <si>
-    <t>2021.09.29.</t>
-  </si>
-  <si>
-    <t>E4면</t>
-  </si>
-  <si>
-    <t>2021.09.30.</t>
-  </si>
-  <si>
-    <t>A32면</t>
-  </si>
-  <si>
-    <t>A14면</t>
-  </si>
-  <si>
-    <t>2021.09.16.</t>
-  </si>
-  <si>
-    <t>A36면</t>
-  </si>
-  <si>
-    <t>2021.09.12.</t>
-  </si>
-  <si>
-    <t>2021.09.03.</t>
-  </si>
-  <si>
-    <t>A19면</t>
-  </si>
-  <si>
-    <t>2021.09.02.</t>
-  </si>
-  <si>
-    <t>2021.08.19.</t>
-  </si>
-  <si>
-    <t>9면</t>
-  </si>
-  <si>
-    <t>2021.08.01.</t>
-  </si>
-  <si>
-    <t>A10면</t>
-  </si>
-  <si>
-    <t>2021.08.04.</t>
-  </si>
-  <si>
-    <t>16면</t>
-  </si>
-  <si>
-    <t>2021.07.29.</t>
-  </si>
-  <si>
-    <t>21면</t>
-  </si>
-  <si>
-    <t>A33면</t>
-  </si>
-  <si>
-    <t>2021.07.25.</t>
-  </si>
-  <si>
-    <t>2021.07.16.</t>
-  </si>
-  <si>
-    <t>10면</t>
-  </si>
-  <si>
-    <t>B7면</t>
-  </si>
-  <si>
-    <t>A15면</t>
-  </si>
-  <si>
-    <t>2021.07.19.</t>
-  </si>
-  <si>
-    <t>A5면</t>
-  </si>
-  <si>
-    <t>2021.07.05.</t>
-  </si>
-  <si>
-    <t>2021.06.28.</t>
-  </si>
-  <si>
-    <t>29면</t>
-  </si>
-  <si>
-    <t>2021.06.29.</t>
-  </si>
-  <si>
-    <t>2021.10.30.</t>
-  </si>
-  <si>
-    <t>2021.07.14.</t>
-  </si>
-  <si>
-    <t>14면</t>
-  </si>
-  <si>
-    <t>A23면</t>
-  </si>
-  <si>
-    <t>2021.06.24.</t>
-  </si>
-  <si>
-    <t>2021.06.14.</t>
-  </si>
-  <si>
-    <t>2021.05.27.</t>
-  </si>
-  <si>
-    <t>A37면</t>
-  </si>
-  <si>
-    <t>22면</t>
-  </si>
-  <si>
-    <t>2021.05.26.</t>
-  </si>
-  <si>
-    <t>2021.05.25.</t>
-  </si>
-  <si>
-    <t>A29면</t>
-  </si>
-  <si>
-    <t>2021.10.24.</t>
-  </si>
-  <si>
-    <t>2021.05.18.</t>
-  </si>
-  <si>
-    <t>12면</t>
-  </si>
-  <si>
-    <t>2021.05.03.</t>
-  </si>
-  <si>
-    <t>11면</t>
-  </si>
-  <si>
-    <t>2021.05.02.</t>
-  </si>
-  <si>
-    <t>C3면</t>
-  </si>
-  <si>
-    <t>2021.04.12.</t>
-  </si>
-  <si>
-    <t>2021.04.09.</t>
-  </si>
-  <si>
-    <t>2021.03.30.</t>
-  </si>
-  <si>
-    <t>B1면</t>
-  </si>
-  <si>
-    <t>2021.10.29.</t>
-  </si>
-  <si>
-    <t>2021.03.25.</t>
-  </si>
-  <si>
-    <t>18면</t>
-  </si>
-  <si>
-    <t>2021.03.09.</t>
-  </si>
-  <si>
-    <t>A25면</t>
-  </si>
-  <si>
-    <t>C5면</t>
-  </si>
-  <si>
-    <t>2021.03.02.</t>
-  </si>
-  <si>
-    <t>C7면</t>
-  </si>
-  <si>
-    <t>2021.02.25.</t>
-  </si>
-  <si>
-    <t>2021.02.18.</t>
-  </si>
-  <si>
-    <t>6면</t>
-  </si>
-  <si>
-    <t>2021.09.17.</t>
-  </si>
-  <si>
-    <t>2021.02.08.</t>
-  </si>
-  <si>
-    <t>2021.10.28.</t>
-  </si>
-  <si>
-    <t>2021.02.04.</t>
-  </si>
-  <si>
-    <t>2021.09.27.</t>
-  </si>
-  <si>
-    <t>2021.01.26.</t>
-  </si>
-  <si>
-    <t>A24면</t>
-  </si>
-  <si>
-    <t>2021.09.07.</t>
-  </si>
-  <si>
-    <t>28면</t>
-  </si>
-  <si>
-    <t>2021.01.20.</t>
-  </si>
-  <si>
-    <t>2021.02.02.</t>
-  </si>
-  <si>
-    <t>2021.01.19.</t>
-  </si>
-  <si>
-    <t>A12면</t>
-  </si>
-  <si>
-    <t>2021.01.14.</t>
-  </si>
-  <si>
-    <t>2021.09.01.</t>
-  </si>
-  <si>
-    <t>2021.01.12.</t>
-  </si>
-  <si>
-    <t>2021.09.23.</t>
-  </si>
-  <si>
-    <t>2021.01.04.</t>
-  </si>
-  <si>
-    <t>15면</t>
-  </si>
-  <si>
-    <t>4면</t>
-  </si>
-  <si>
-    <t>2021.10.26.</t>
-  </si>
-  <si>
-    <t>13면</t>
-  </si>
-  <si>
-    <t>2021.09.14.</t>
-  </si>
-  <si>
-    <t>2021.07.22.</t>
-  </si>
-  <si>
-    <t>2021.07.23.</t>
-  </si>
-  <si>
-    <t>2021.10.17.</t>
-  </si>
-  <si>
-    <t>2021.08.10.</t>
-  </si>
-  <si>
-    <t>2면</t>
-  </si>
-  <si>
-    <t>2021.07.26.</t>
-  </si>
-  <si>
-    <t>5면</t>
-  </si>
-  <si>
-    <t>A1면</t>
-  </si>
-  <si>
-    <t>2021.06.04.</t>
-  </si>
-  <si>
-    <t>A13면</t>
-  </si>
-  <si>
-    <t>2021.07.04.</t>
-  </si>
-  <si>
-    <t>2021.07.20.</t>
-  </si>
-  <si>
-    <t>2021.05.13.</t>
-  </si>
-  <si>
-    <t>2021.05.23.</t>
-  </si>
-  <si>
-    <t>2021.06.18.</t>
-  </si>
-  <si>
-    <t>A31면</t>
-  </si>
-  <si>
-    <t>2021.04.15.</t>
-  </si>
-  <si>
-    <t>2021.04.11.</t>
-  </si>
-  <si>
-    <t>23면</t>
-  </si>
-  <si>
-    <t>2021.04.28.</t>
-  </si>
-  <si>
-    <t>2021.04.22.</t>
-  </si>
-  <si>
-    <t>2021.04.24.</t>
-  </si>
-  <si>
-    <t>2021.02.07.</t>
-  </si>
-  <si>
-    <t>2021.04.01.</t>
-  </si>
-  <si>
-    <t>2021.01.25.</t>
-  </si>
-  <si>
-    <t>2021.03.14.</t>
-  </si>
-  <si>
-    <t>2021.03.15.</t>
-  </si>
-  <si>
-    <t>A18면</t>
+    <t>2021.10.29</t>
+  </si>
+  <si>
+    <t>2021-10-27</t>
+  </si>
+  <si>
+    <t>2021-10-20</t>
+  </si>
+  <si>
+    <t>2021.10.25</t>
+  </si>
+  <si>
+    <t>2021.10.15</t>
+  </si>
+  <si>
+    <t>2021-10-12</t>
+  </si>
+  <si>
+    <t>2021-10-14</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>2021-10-22</t>
+  </si>
+  <si>
+    <t>2021-09-29</t>
+  </si>
+  <si>
+    <t>2021.09.28</t>
+  </si>
+  <si>
+    <t>2021.09.30</t>
+  </si>
+  <si>
+    <t>2021-09-15</t>
+  </si>
+  <si>
+    <t>2021-09-09</t>
+  </si>
+  <si>
+    <t>2021-09-08</t>
+  </si>
+  <si>
+    <t>2021-09-01</t>
+  </si>
+  <si>
+    <t>2021.09.01</t>
+  </si>
+  <si>
+    <t>2021-09-12</t>
+  </si>
+  <si>
+    <t>2021-09-03</t>
+  </si>
+  <si>
+    <t>2021-09-02</t>
+  </si>
+  <si>
+    <t>2021-08-19</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>2021.08.10</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>2021-08-01</t>
+  </si>
+  <si>
+    <t>2021-08-03</t>
+  </si>
+  <si>
+    <t>2021-07-29</t>
+  </si>
+  <si>
+    <t>2021.07.26</t>
+  </si>
+  <si>
+    <t>2021-07-26</t>
+  </si>
+  <si>
+    <t>2021-07-27</t>
+  </si>
+  <si>
+    <t>2021-07-25</t>
+  </si>
+  <si>
+    <t>2021-07-16</t>
+  </si>
+  <si>
+    <t>2021.07.16</t>
+  </si>
+  <si>
+    <t>2021-07-15</t>
+  </si>
+  <si>
+    <t>2021-07-14</t>
+  </si>
+  <si>
+    <t>2021.07.14</t>
+  </si>
+  <si>
+    <t>2021-07-23</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>2021-07-05</t>
+  </si>
+  <si>
+    <t>2021-06-28</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>2021.06.24</t>
+  </si>
+  <si>
+    <t>2021-06-15</t>
+  </si>
+  <si>
+    <t>2021-06-16</t>
+  </si>
+  <si>
+    <t>2021-06-04</t>
+  </si>
+  <si>
+    <t>2021-06-03</t>
+  </si>
+  <si>
+    <t>2021-05-27</t>
+  </si>
+  <si>
+    <t>2021.05.27</t>
+  </si>
+  <si>
+    <t>2021-05-26</t>
+  </si>
+  <si>
+    <t>2021-05-25</t>
+  </si>
+  <si>
+    <t>2021-05-21</t>
+  </si>
+  <si>
+    <t>2021-05-20</t>
+  </si>
+  <si>
+    <t>2021.05.20</t>
+  </si>
+  <si>
+    <t>2021-05-17</t>
+  </si>
+  <si>
+    <t>2021-05-03</t>
+  </si>
+  <si>
+    <t>2021-05-02</t>
+  </si>
+  <si>
+    <t>2021.04.30</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>2021.04.26</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>2021.04.09</t>
+  </si>
+  <si>
+    <t>2021-04-08</t>
+  </si>
+  <si>
+    <t>2021.04.06</t>
+  </si>
+  <si>
+    <t>2021-04-04</t>
+  </si>
+  <si>
+    <t>2021-03-30</t>
+  </si>
+  <si>
+    <t>2021.03.25</t>
+  </si>
+  <si>
+    <t>2021.03.24</t>
+  </si>
+  <si>
+    <t>2021-03-23</t>
+  </si>
+  <si>
+    <t>2021.03.22</t>
+  </si>
+  <si>
+    <t>2021-03-09</t>
+  </si>
+  <si>
+    <t>2021-03-08</t>
+  </si>
+  <si>
+    <t>2021.03.02</t>
+  </si>
+  <si>
+    <t>2021-02-25</t>
+  </si>
+  <si>
+    <t>2021-02-24</t>
+  </si>
+  <si>
+    <t>2021-02-21</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>2021-09-17</t>
+  </si>
+  <si>
+    <t>2021.02.09</t>
+  </si>
+  <si>
+    <t>2021-02-07</t>
+  </si>
+  <si>
+    <t>2021-02-15</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>2021-09-13</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>2021-9-10</t>
+  </si>
+  <si>
+    <t>2021-01-27</t>
+  </si>
+  <si>
+    <t>2021-01-28</t>
+  </si>
+  <si>
+    <t>2021-01-25</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>2021-09-07</t>
+  </si>
+  <si>
+    <t>2021-01-29</t>
+  </si>
+  <si>
+    <t>2021-01-20</t>
+  </si>
+  <si>
+    <t>2021-02-02</t>
+  </si>
+  <si>
+    <t>2021.01.19</t>
+  </si>
+  <si>
+    <t>2021-01-19</t>
+  </si>
+  <si>
+    <t>2021.01.17</t>
+  </si>
+  <si>
+    <t>2021-01-14</t>
+  </si>
+  <si>
+    <t>2021-01-12</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>2021.09.07</t>
+  </si>
+  <si>
+    <t>2021.01.06</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>2021-08-04</t>
+  </si>
+  <si>
+    <t>2021.08.04</t>
+  </si>
+  <si>
+    <t>2021.08.01</t>
+  </si>
+  <si>
+    <t>2021-08-05</t>
+  </si>
+  <si>
+    <t>2021-07-22</t>
+  </si>
+  <si>
+    <t>2021-07-01</t>
+  </si>
+  <si>
+    <t>2021.07.15</t>
+  </si>
+  <si>
+    <t>2021-07-02</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-06-18</t>
+  </si>
+  <si>
+    <t>2021.06.30</t>
+  </si>
+  <si>
+    <t>2021-06-17</t>
+  </si>
+  <si>
+    <t>2021.06.11</t>
+  </si>
+  <si>
+    <t>2021-05-23</t>
+  </si>
+  <si>
+    <t>2021-05-13</t>
+  </si>
+  <si>
+    <t>2021.05.13</t>
+  </si>
+  <si>
+    <t>2021-04-13</t>
+  </si>
+  <si>
+    <t>2021-04-15</t>
+  </si>
+  <si>
+    <t>2021-04-11</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2021.04.08</t>
+  </si>
+  <si>
+    <t>2021-03-25</t>
+  </si>
+  <si>
+    <t>2021-02-23</t>
+  </si>
+  <si>
+    <t>2021.02.18</t>
+  </si>
+  <si>
+    <t>2021-03-13</t>
+  </si>
+  <si>
+    <t>2021.02.22</t>
+  </si>
+  <si>
+    <t>2021.02.07</t>
+  </si>
+  <si>
+    <t>2021-05-24</t>
+  </si>
+  <si>
+    <t>2021-01-21</t>
   </si>
   <si>
     <t>naver</t>
@@ -2774,7 +2774,7 @@
         <v>431</v>
       </c>
       <c r="D4" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E4" t="s">
         <v>773</v>
@@ -2791,7 +2791,7 @@
         <v>432</v>
       </c>
       <c r="D5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E5" t="s">
         <v>773</v>
@@ -2808,7 +2808,7 @@
         <v>433</v>
       </c>
       <c r="D6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E6" t="s">
         <v>773</v>
@@ -2825,7 +2825,7 @@
         <v>434</v>
       </c>
       <c r="D7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E7" t="s">
         <v>773</v>
@@ -2842,7 +2842,7 @@
         <v>435</v>
       </c>
       <c r="D8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E8" t="s">
         <v>773</v>
@@ -2859,7 +2859,7 @@
         <v>436</v>
       </c>
       <c r="D9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E9" t="s">
         <v>773</v>
@@ -2876,7 +2876,7 @@
         <v>437</v>
       </c>
       <c r="D10" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E10" t="s">
         <v>773</v>
@@ -2893,7 +2893,7 @@
         <v>438</v>
       </c>
       <c r="D11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E11" t="s">
         <v>773</v>
@@ -2910,7 +2910,7 @@
         <v>439</v>
       </c>
       <c r="D12" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E12" t="s">
         <v>773</v>
@@ -2927,7 +2927,7 @@
         <v>440</v>
       </c>
       <c r="D13" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E13" t="s">
         <v>773</v>
@@ -2944,7 +2944,7 @@
         <v>441</v>
       </c>
       <c r="D14" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E14" t="s">
         <v>773</v>
@@ -2961,7 +2961,7 @@
         <v>442</v>
       </c>
       <c r="D15" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E15" t="s">
         <v>773</v>
@@ -2978,7 +2978,7 @@
         <v>443</v>
       </c>
       <c r="D16" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E16" t="s">
         <v>773</v>
@@ -2995,7 +2995,7 @@
         <v>444</v>
       </c>
       <c r="D17" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="E17" t="s">
         <v>773</v>
@@ -3012,7 +3012,7 @@
         <v>445</v>
       </c>
       <c r="D18" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="E18" t="s">
         <v>773</v>
@@ -3029,7 +3029,7 @@
         <v>446</v>
       </c>
       <c r="D19" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="E19" t="s">
         <v>773</v>
@@ -3046,7 +3046,7 @@
         <v>447</v>
       </c>
       <c r="D20" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="E20" t="s">
         <v>773</v>
@@ -3080,7 +3080,7 @@
         <v>449</v>
       </c>
       <c r="D22" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E22" t="s">
         <v>773</v>
@@ -3097,7 +3097,7 @@
         <v>450</v>
       </c>
       <c r="D23" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E23" t="s">
         <v>773</v>
@@ -3114,7 +3114,7 @@
         <v>451</v>
       </c>
       <c r="D24" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="E24" t="s">
         <v>773</v>
@@ -3131,7 +3131,7 @@
         <v>452</v>
       </c>
       <c r="D25" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E25" t="s">
         <v>773</v>
@@ -3148,7 +3148,7 @@
         <v>453</v>
       </c>
       <c r="D26" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E26" t="s">
         <v>773</v>
@@ -3165,7 +3165,7 @@
         <v>454</v>
       </c>
       <c r="D27" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="E27" t="s">
         <v>773</v>
@@ -3182,7 +3182,7 @@
         <v>455</v>
       </c>
       <c r="D28" t="s">
-        <v>644</v>
+        <v>663</v>
       </c>
       <c r="E28" t="s">
         <v>773</v>
@@ -3199,7 +3199,7 @@
         <v>456</v>
       </c>
       <c r="D29" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="E29" t="s">
         <v>773</v>
@@ -3216,7 +3216,7 @@
         <v>457</v>
       </c>
       <c r="D30" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E30" t="s">
         <v>773</v>
@@ -3233,7 +3233,7 @@
         <v>458</v>
       </c>
       <c r="D31" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="E31" t="s">
         <v>773</v>
@@ -3250,7 +3250,7 @@
         <v>459</v>
       </c>
       <c r="D32" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E32" t="s">
         <v>773</v>
@@ -3267,7 +3267,7 @@
         <v>460</v>
       </c>
       <c r="D33" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E33" t="s">
         <v>773</v>
@@ -3284,7 +3284,7 @@
         <v>461</v>
       </c>
       <c r="D34" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E34" t="s">
         <v>773</v>
@@ -3301,7 +3301,7 @@
         <v>462</v>
       </c>
       <c r="D35" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E35" t="s">
         <v>773</v>
@@ -3318,7 +3318,7 @@
         <v>463</v>
       </c>
       <c r="D36" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="E36" t="s">
         <v>773</v>
@@ -3335,7 +3335,7 @@
         <v>464</v>
       </c>
       <c r="D37" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E37" t="s">
         <v>773</v>
@@ -3352,7 +3352,7 @@
         <v>465</v>
       </c>
       <c r="D38" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="E38" t="s">
         <v>773</v>
@@ -3369,7 +3369,7 @@
         <v>466</v>
       </c>
       <c r="D39" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E39" t="s">
         <v>773</v>
@@ -3386,7 +3386,7 @@
         <v>467</v>
       </c>
       <c r="D40" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="E40" t="s">
         <v>773</v>
@@ -3403,7 +3403,7 @@
         <v>468</v>
       </c>
       <c r="D41" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E41" t="s">
         <v>773</v>
@@ -3420,7 +3420,7 @@
         <v>469</v>
       </c>
       <c r="D42" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E42" t="s">
         <v>773</v>
@@ -3437,7 +3437,7 @@
         <v>470</v>
       </c>
       <c r="D43" t="s">
-        <v>649</v>
+        <v>675</v>
       </c>
       <c r="E43" t="s">
         <v>773</v>
@@ -3454,7 +3454,7 @@
         <v>471</v>
       </c>
       <c r="D44" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E44" t="s">
         <v>773</v>
@@ -3471,7 +3471,7 @@
         <v>472</v>
       </c>
       <c r="D45" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E45" t="s">
         <v>773</v>
@@ -3488,7 +3488,7 @@
         <v>473</v>
       </c>
       <c r="D46" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E46" t="s">
         <v>773</v>
@@ -3505,7 +3505,7 @@
         <v>474</v>
       </c>
       <c r="D47" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E47" t="s">
         <v>773</v>
@@ -3522,7 +3522,7 @@
         <v>475</v>
       </c>
       <c r="D48" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E48" t="s">
         <v>773</v>
@@ -3539,7 +3539,7 @@
         <v>476</v>
       </c>
       <c r="D49" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E49" t="s">
         <v>773</v>
@@ -3556,7 +3556,7 @@
         <v>477</v>
       </c>
       <c r="D50" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E50" t="s">
         <v>773</v>
@@ -3573,7 +3573,7 @@
         <v>478</v>
       </c>
       <c r="D51" t="s">
-        <v>652</v>
+        <v>680</v>
       </c>
       <c r="E51" t="s">
         <v>773</v>
@@ -3590,7 +3590,7 @@
         <v>479</v>
       </c>
       <c r="D52" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E52" t="s">
         <v>773</v>
@@ -3607,7 +3607,7 @@
         <v>480</v>
       </c>
       <c r="D53" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E53" t="s">
         <v>773</v>
@@ -3624,7 +3624,7 @@
         <v>481</v>
       </c>
       <c r="D54" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E54" t="s">
         <v>773</v>
@@ -3641,7 +3641,7 @@
         <v>482</v>
       </c>
       <c r="D55" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E55" t="s">
         <v>773</v>
@@ -3658,7 +3658,7 @@
         <v>483</v>
       </c>
       <c r="D56" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E56" t="s">
         <v>773</v>
@@ -3675,7 +3675,7 @@
         <v>484</v>
       </c>
       <c r="D57" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E57" t="s">
         <v>773</v>
@@ -3692,7 +3692,7 @@
         <v>485</v>
       </c>
       <c r="D58" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E58" t="s">
         <v>773</v>
@@ -3709,7 +3709,7 @@
         <v>473</v>
       </c>
       <c r="D59" t="s">
-        <v>649</v>
+        <v>677</v>
       </c>
       <c r="E59" t="s">
         <v>773</v>
@@ -3726,7 +3726,7 @@
         <v>474</v>
       </c>
       <c r="D60" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="E60" t="s">
         <v>773</v>
@@ -3743,7 +3743,7 @@
         <v>475</v>
       </c>
       <c r="D61" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="E61" t="s">
         <v>773</v>
@@ -3760,7 +3760,7 @@
         <v>476</v>
       </c>
       <c r="D62" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="E62" t="s">
         <v>773</v>
@@ -3777,7 +3777,7 @@
         <v>486</v>
       </c>
       <c r="D63" t="s">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="E63" t="s">
         <v>773</v>
@@ -3794,7 +3794,7 @@
         <v>477</v>
       </c>
       <c r="D64" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="E64" t="s">
         <v>773</v>
@@ -3811,7 +3811,7 @@
         <v>478</v>
       </c>
       <c r="D65" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E65" t="s">
         <v>773</v>
@@ -3828,7 +3828,7 @@
         <v>479</v>
       </c>
       <c r="D66" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="E66" t="s">
         <v>773</v>
@@ -3845,7 +3845,7 @@
         <v>480</v>
       </c>
       <c r="D67" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="E67" t="s">
         <v>773</v>
@@ -3862,7 +3862,7 @@
         <v>480</v>
       </c>
       <c r="D68" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="E68" t="s">
         <v>773</v>
@@ -3879,7 +3879,7 @@
         <v>481</v>
       </c>
       <c r="D69" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E69" t="s">
         <v>773</v>
@@ -3896,7 +3896,7 @@
         <v>482</v>
       </c>
       <c r="D70" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="E70" t="s">
         <v>773</v>
@@ -3913,7 +3913,7 @@
         <v>483</v>
       </c>
       <c r="D71" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="E71" t="s">
         <v>773</v>
@@ -3930,7 +3930,7 @@
         <v>484</v>
       </c>
       <c r="D72" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="E72" t="s">
         <v>773</v>
@@ -3947,7 +3947,7 @@
         <v>485</v>
       </c>
       <c r="D73" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="E73" t="s">
         <v>773</v>
@@ -3964,7 +3964,7 @@
         <v>487</v>
       </c>
       <c r="D74" t="s">
-        <v>642</v>
+        <v>688</v>
       </c>
       <c r="E74" t="s">
         <v>773</v>
@@ -3981,7 +3981,7 @@
         <v>488</v>
       </c>
       <c r="D75" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E75" t="s">
         <v>773</v>
@@ -3998,7 +3998,7 @@
         <v>489</v>
       </c>
       <c r="D76" t="s">
-        <v>669</v>
+        <v>690</v>
       </c>
       <c r="E76" t="s">
         <v>773</v>
@@ -4015,7 +4015,7 @@
         <v>490</v>
       </c>
       <c r="D77" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E77" t="s">
         <v>773</v>
@@ -4032,7 +4032,7 @@
         <v>491</v>
       </c>
       <c r="D78" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E78" t="s">
         <v>773</v>
@@ -4049,7 +4049,7 @@
         <v>492</v>
       </c>
       <c r="D79" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E79" t="s">
         <v>773</v>
@@ -4066,7 +4066,7 @@
         <v>493</v>
       </c>
       <c r="D80" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="E80" t="s">
         <v>773</v>
@@ -4083,7 +4083,7 @@
         <v>494</v>
       </c>
       <c r="D81" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="E81" t="s">
         <v>773</v>
@@ -4100,7 +4100,7 @@
         <v>495</v>
       </c>
       <c r="D82" t="s">
-        <v>642</v>
+        <v>694</v>
       </c>
       <c r="E82" t="s">
         <v>773</v>
@@ -4117,7 +4117,7 @@
         <v>496</v>
       </c>
       <c r="D83" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E83" t="s">
         <v>773</v>
@@ -4134,7 +4134,7 @@
         <v>497</v>
       </c>
       <c r="D84" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E84" t="s">
         <v>773</v>
@@ -4151,7 +4151,7 @@
         <v>498</v>
       </c>
       <c r="D85" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E85" t="s">
         <v>773</v>
@@ -4168,7 +4168,7 @@
         <v>497</v>
       </c>
       <c r="D86" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="E86" t="s">
         <v>773</v>
@@ -4185,7 +4185,7 @@
         <v>499</v>
       </c>
       <c r="D87" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="E87" t="s">
         <v>773</v>
@@ -4202,7 +4202,7 @@
         <v>500</v>
       </c>
       <c r="D88" t="s">
-        <v>680</v>
+        <v>697</v>
       </c>
       <c r="E88" t="s">
         <v>773</v>
@@ -4219,7 +4219,7 @@
         <v>501</v>
       </c>
       <c r="D89" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E89" t="s">
         <v>773</v>
@@ -4236,7 +4236,7 @@
         <v>502</v>
       </c>
       <c r="D90" t="s">
-        <v>661</v>
+        <v>699</v>
       </c>
       <c r="E90" t="s">
         <v>773</v>
@@ -4253,7 +4253,7 @@
         <v>503</v>
       </c>
       <c r="D91" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="E91" t="s">
         <v>773</v>
@@ -4270,7 +4270,7 @@
         <v>504</v>
       </c>
       <c r="D92" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="E92" t="s">
         <v>773</v>
@@ -4287,7 +4287,7 @@
         <v>505</v>
       </c>
       <c r="D93" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="E93" t="s">
         <v>773</v>
@@ -4304,7 +4304,7 @@
         <v>506</v>
       </c>
       <c r="D94" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="E94" t="s">
         <v>773</v>
@@ -4321,7 +4321,7 @@
         <v>507</v>
       </c>
       <c r="D95" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E95" t="s">
         <v>773</v>
@@ -4338,7 +4338,7 @@
         <v>508</v>
       </c>
       <c r="D96" t="s">
-        <v>671</v>
+        <v>703</v>
       </c>
       <c r="E96" t="s">
         <v>773</v>
@@ -4355,7 +4355,7 @@
         <v>509</v>
       </c>
       <c r="D97" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="E97" t="s">
         <v>773</v>
@@ -4372,7 +4372,7 @@
         <v>510</v>
       </c>
       <c r="D98" t="s">
-        <v>666</v>
+        <v>705</v>
       </c>
       <c r="E98" t="s">
         <v>773</v>
@@ -4389,7 +4389,7 @@
         <v>511</v>
       </c>
       <c r="D99" t="s">
-        <v>645</v>
+        <v>706</v>
       </c>
       <c r="E99" t="s">
         <v>773</v>
@@ -4406,7 +4406,7 @@
         <v>512</v>
       </c>
       <c r="D100" t="s">
-        <v>673</v>
+        <v>651</v>
       </c>
       <c r="E100" t="s">
         <v>773</v>
@@ -4423,7 +4423,7 @@
         <v>513</v>
       </c>
       <c r="D101" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E101" t="s">
         <v>773</v>
@@ -4440,7 +4440,7 @@
         <v>513</v>
       </c>
       <c r="D102" t="s">
-        <v>649</v>
+        <v>707</v>
       </c>
       <c r="E102" t="s">
         <v>773</v>
@@ -4457,7 +4457,7 @@
         <v>514</v>
       </c>
       <c r="D103" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="E103" t="s">
         <v>773</v>
@@ -4474,7 +4474,7 @@
         <v>515</v>
       </c>
       <c r="D104" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="E104" t="s">
         <v>773</v>
@@ -4491,7 +4491,7 @@
         <v>516</v>
       </c>
       <c r="D105" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E105" t="s">
         <v>773</v>
@@ -4508,7 +4508,7 @@
         <v>517</v>
       </c>
       <c r="D106" t="s">
-        <v>661</v>
+        <v>710</v>
       </c>
       <c r="E106" t="s">
         <v>773</v>
@@ -4525,7 +4525,7 @@
         <v>518</v>
       </c>
       <c r="D107" t="s">
-        <v>688</v>
+        <v>710</v>
       </c>
       <c r="E107" t="s">
         <v>773</v>
@@ -4542,7 +4542,7 @@
         <v>519</v>
       </c>
       <c r="D108" t="s">
-        <v>646</v>
+        <v>711</v>
       </c>
       <c r="E108" t="s">
         <v>773</v>
@@ -4576,7 +4576,7 @@
         <v>521</v>
       </c>
       <c r="D110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E110" t="s">
         <v>773</v>
@@ -4593,7 +4593,7 @@
         <v>522</v>
       </c>
       <c r="D111" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E111" t="s">
         <v>773</v>
@@ -4610,7 +4610,7 @@
         <v>523</v>
       </c>
       <c r="D112" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E112" t="s">
         <v>773</v>
@@ -4627,7 +4627,7 @@
         <v>524</v>
       </c>
       <c r="D113" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E113" t="s">
         <v>773</v>
@@ -4644,7 +4644,7 @@
         <v>525</v>
       </c>
       <c r="D114" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E114" t="s">
         <v>773</v>
@@ -4661,7 +4661,7 @@
         <v>526</v>
       </c>
       <c r="D115" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E115" t="s">
         <v>773</v>
@@ -4678,7 +4678,7 @@
         <v>527</v>
       </c>
       <c r="D116" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="E116" t="s">
         <v>773</v>
@@ -4695,7 +4695,7 @@
         <v>528</v>
       </c>
       <c r="D117" t="s">
-        <v>652</v>
+        <v>717</v>
       </c>
       <c r="E117" t="s">
         <v>773</v>
@@ -4712,7 +4712,7 @@
         <v>529</v>
       </c>
       <c r="D118" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="E118" t="s">
         <v>773</v>
@@ -4729,7 +4729,7 @@
         <v>529</v>
       </c>
       <c r="D119" t="s">
-        <v>696</v>
+        <v>715</v>
       </c>
       <c r="E119" t="s">
         <v>773</v>
@@ -4746,7 +4746,7 @@
         <v>530</v>
       </c>
       <c r="D120" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E120" t="s">
         <v>773</v>
@@ -4763,7 +4763,7 @@
         <v>531</v>
       </c>
       <c r="D121" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E121" t="s">
         <v>773</v>
@@ -4780,7 +4780,7 @@
         <v>532</v>
       </c>
       <c r="D122" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E122" t="s">
         <v>773</v>
@@ -4797,7 +4797,7 @@
         <v>533</v>
       </c>
       <c r="D123" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E123" t="s">
         <v>773</v>
@@ -4814,7 +4814,7 @@
         <v>534</v>
       </c>
       <c r="D124" t="s">
-        <v>647</v>
+        <v>721</v>
       </c>
       <c r="E124" t="s">
         <v>773</v>
@@ -4831,7 +4831,7 @@
         <v>535</v>
       </c>
       <c r="D125" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E125" t="s">
         <v>773</v>
@@ -4848,7 +4848,7 @@
         <v>536</v>
       </c>
       <c r="D126" t="s">
-        <v>675</v>
+        <v>723</v>
       </c>
       <c r="E126" t="s">
         <v>773</v>
@@ -4865,7 +4865,7 @@
         <v>537</v>
       </c>
       <c r="D127" t="s">
-        <v>657</v>
+        <v>724</v>
       </c>
       <c r="E127" t="s">
         <v>773</v>
@@ -4882,7 +4882,7 @@
         <v>538</v>
       </c>
       <c r="D128" t="s">
-        <v>660</v>
+        <v>725</v>
       </c>
       <c r="E128" t="s">
         <v>773</v>
@@ -4899,7 +4899,7 @@
         <v>539</v>
       </c>
       <c r="D129" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="E129" t="s">
         <v>773</v>
@@ -4916,7 +4916,7 @@
         <v>540</v>
       </c>
       <c r="D130" t="s">
-        <v>713</v>
+        <v>656</v>
       </c>
       <c r="E130" t="s">
         <v>773</v>
@@ -4933,7 +4933,7 @@
         <v>541</v>
       </c>
       <c r="D131" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="E131" t="s">
         <v>773</v>
@@ -4950,7 +4950,7 @@
         <v>542</v>
       </c>
       <c r="D132" t="s">
-        <v>642</v>
+        <v>728</v>
       </c>
       <c r="E132" t="s">
         <v>773</v>
@@ -4967,7 +4967,7 @@
         <v>543</v>
       </c>
       <c r="D133" t="s">
-        <v>713</v>
+        <v>729</v>
       </c>
       <c r="E133" t="s">
         <v>773</v>
@@ -4984,7 +4984,7 @@
         <v>544</v>
       </c>
       <c r="D134" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="E134" t="s">
         <v>773</v>
@@ -5001,7 +5001,7 @@
         <v>545</v>
       </c>
       <c r="D135" t="s">
-        <v>680</v>
+        <v>731</v>
       </c>
       <c r="E135" t="s">
         <v>773</v>
@@ -5018,7 +5018,7 @@
         <v>546</v>
       </c>
       <c r="D136" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="E136" t="s">
         <v>773</v>
@@ -5035,7 +5035,7 @@
         <v>547</v>
       </c>
       <c r="D137" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="E137" t="s">
         <v>773</v>
@@ -5052,7 +5052,7 @@
         <v>548</v>
       </c>
       <c r="D138" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="E138" t="s">
         <v>773</v>
@@ -5069,7 +5069,7 @@
         <v>549</v>
       </c>
       <c r="D139" t="s">
-        <v>690</v>
+        <v>733</v>
       </c>
       <c r="E139" t="s">
         <v>773</v>
@@ -5086,7 +5086,7 @@
         <v>550</v>
       </c>
       <c r="D140" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="E140" t="s">
         <v>773</v>
@@ -5103,7 +5103,7 @@
         <v>548</v>
       </c>
       <c r="D141" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E141" t="s">
         <v>773</v>
@@ -5120,7 +5120,7 @@
         <v>549</v>
       </c>
       <c r="D142" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="E142" t="s">
         <v>773</v>
@@ -5137,7 +5137,7 @@
         <v>550</v>
       </c>
       <c r="D143" t="s">
-        <v>661</v>
+        <v>734</v>
       </c>
       <c r="E143" t="s">
         <v>773</v>
@@ -5154,7 +5154,7 @@
         <v>551</v>
       </c>
       <c r="D144" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E144" t="s">
         <v>773</v>
@@ -5171,7 +5171,7 @@
         <v>552</v>
       </c>
       <c r="D145" t="s">
-        <v>696</v>
+        <v>735</v>
       </c>
       <c r="E145" t="s">
         <v>773</v>
@@ -5188,7 +5188,7 @@
         <v>553</v>
       </c>
       <c r="D146" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="E146" t="s">
         <v>773</v>
@@ -5205,7 +5205,7 @@
         <v>554</v>
       </c>
       <c r="D147" t="s">
-        <v>702</v>
+        <v>737</v>
       </c>
       <c r="E147" t="s">
         <v>773</v>
@@ -5222,7 +5222,7 @@
         <v>555</v>
       </c>
       <c r="D148" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="E148" t="s">
         <v>773</v>
@@ -5239,7 +5239,7 @@
         <v>556</v>
       </c>
       <c r="D149" t="s">
-        <v>679</v>
+        <v>738</v>
       </c>
       <c r="E149" t="s">
         <v>773</v>
@@ -5256,7 +5256,7 @@
         <v>557</v>
       </c>
       <c r="D150" t="s">
-        <v>733</v>
+        <v>658</v>
       </c>
       <c r="E150" t="s">
         <v>773</v>
@@ -5273,7 +5273,7 @@
         <v>558</v>
       </c>
       <c r="D151" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="E151" t="s">
         <v>773</v>
@@ -5290,7 +5290,7 @@
         <v>557</v>
       </c>
       <c r="D152" t="s">
-        <v>735</v>
+        <v>658</v>
       </c>
       <c r="E152" t="s">
         <v>773</v>
@@ -5307,7 +5307,7 @@
         <v>559</v>
       </c>
       <c r="D153" t="s">
-        <v>679</v>
+        <v>739</v>
       </c>
       <c r="E153" t="s">
         <v>773</v>
@@ -5324,7 +5324,7 @@
         <v>560</v>
       </c>
       <c r="D154" t="s">
-        <v>736</v>
+        <v>659</v>
       </c>
       <c r="E154" t="s">
         <v>773</v>
@@ -5341,7 +5341,7 @@
         <v>561</v>
       </c>
       <c r="D155" t="s">
-        <v>737</v>
+        <v>656</v>
       </c>
       <c r="E155" t="s">
         <v>773</v>
@@ -5358,7 +5358,7 @@
         <v>562</v>
       </c>
       <c r="D156" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E156" t="s">
         <v>773</v>
@@ -5375,7 +5375,7 @@
         <v>562</v>
       </c>
       <c r="D157" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="E157" t="s">
         <v>773</v>
@@ -5392,7 +5392,7 @@
         <v>563</v>
       </c>
       <c r="D158" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="E158" t="s">
         <v>773</v>
@@ -5409,7 +5409,7 @@
         <v>564</v>
       </c>
       <c r="D159" t="s">
-        <v>729</v>
+        <v>740</v>
       </c>
       <c r="E159" t="s">
         <v>773</v>
@@ -5426,7 +5426,7 @@
         <v>565</v>
       </c>
       <c r="D160" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="E160" t="s">
         <v>773</v>
@@ -5443,7 +5443,7 @@
         <v>566</v>
       </c>
       <c r="D161" t="s">
-        <v>669</v>
+        <v>743</v>
       </c>
       <c r="E161" t="s">
         <v>773</v>
@@ -5460,7 +5460,7 @@
         <v>567</v>
       </c>
       <c r="D162" t="s">
-        <v>741</v>
+        <v>660</v>
       </c>
       <c r="E162" t="s">
         <v>773</v>
@@ -5477,7 +5477,7 @@
         <v>568</v>
       </c>
       <c r="D163" t="s">
-        <v>704</v>
+        <v>663</v>
       </c>
       <c r="E163" t="s">
         <v>773</v>
@@ -5494,7 +5494,7 @@
         <v>569</v>
       </c>
       <c r="D164" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="E164" t="s">
         <v>773</v>
@@ -5511,7 +5511,7 @@
         <v>569</v>
       </c>
       <c r="D165" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E165" t="s">
         <v>773</v>
@@ -5528,7 +5528,7 @@
         <v>570</v>
       </c>
       <c r="D166" t="s">
-        <v>642</v>
+        <v>667</v>
       </c>
       <c r="E166" t="s">
         <v>773</v>
@@ -5545,7 +5545,7 @@
         <v>571</v>
       </c>
       <c r="D167" t="s">
-        <v>744</v>
+        <v>667</v>
       </c>
       <c r="E167" t="s">
         <v>773</v>
@@ -5562,7 +5562,7 @@
         <v>572</v>
       </c>
       <c r="D168" t="s">
-        <v>642</v>
+        <v>745</v>
       </c>
       <c r="E168" t="s">
         <v>773</v>
@@ -5579,7 +5579,7 @@
         <v>573</v>
       </c>
       <c r="D169" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
       <c r="E169" t="s">
         <v>773</v>
@@ -5596,7 +5596,7 @@
         <v>574</v>
       </c>
       <c r="D170" t="s">
-        <v>670</v>
+        <v>747</v>
       </c>
       <c r="E170" t="s">
         <v>773</v>
@@ -5613,7 +5613,7 @@
         <v>575</v>
       </c>
       <c r="D171" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="E171" t="s">
         <v>773</v>
@@ -5630,7 +5630,7 @@
         <v>576</v>
       </c>
       <c r="D172" t="s">
-        <v>673</v>
+        <v>748</v>
       </c>
       <c r="E172" t="s">
         <v>773</v>
@@ -5647,7 +5647,7 @@
         <v>577</v>
       </c>
       <c r="D173" t="s">
-        <v>745</v>
+        <v>669</v>
       </c>
       <c r="E173" t="s">
         <v>773</v>
@@ -5664,7 +5664,7 @@
         <v>578</v>
       </c>
       <c r="D174" t="s">
-        <v>699</v>
+        <v>666</v>
       </c>
       <c r="E174" t="s">
         <v>773</v>
@@ -5681,7 +5681,7 @@
         <v>579</v>
       </c>
       <c r="D175" t="s">
-        <v>740</v>
+        <v>676</v>
       </c>
       <c r="E175" t="s">
         <v>773</v>
@@ -5698,7 +5698,7 @@
         <v>580</v>
       </c>
       <c r="D176" t="s">
-        <v>702</v>
+        <v>676</v>
       </c>
       <c r="E176" t="s">
         <v>773</v>
@@ -5715,7 +5715,7 @@
         <v>581</v>
       </c>
       <c r="D177" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="E177" t="s">
         <v>773</v>
@@ -5732,7 +5732,7 @@
         <v>581</v>
       </c>
       <c r="D178" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="E178" t="s">
         <v>773</v>
@@ -5749,7 +5749,7 @@
         <v>582</v>
       </c>
       <c r="D179" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="E179" t="s">
         <v>773</v>
@@ -5766,7 +5766,7 @@
         <v>583</v>
       </c>
       <c r="D180" t="s">
-        <v>745</v>
+        <v>674</v>
       </c>
       <c r="E180" t="s">
         <v>773</v>
@@ -5783,7 +5783,7 @@
         <v>584</v>
       </c>
       <c r="D181" t="s">
-        <v>649</v>
+        <v>749</v>
       </c>
       <c r="E181" t="s">
         <v>773</v>
@@ -5800,7 +5800,7 @@
         <v>585</v>
       </c>
       <c r="D182" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="E182" t="s">
         <v>773</v>
@@ -5817,7 +5817,7 @@
         <v>586</v>
       </c>
       <c r="D183" t="s">
-        <v>748</v>
+        <v>682</v>
       </c>
       <c r="E183" t="s">
         <v>773</v>
@@ -5834,7 +5834,7 @@
         <v>587</v>
       </c>
       <c r="D184" t="s">
-        <v>699</v>
+        <v>751</v>
       </c>
       <c r="E184" t="s">
         <v>773</v>
@@ -5851,7 +5851,7 @@
         <v>588</v>
       </c>
       <c r="D185" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="E185" t="s">
         <v>773</v>
@@ -5868,7 +5868,7 @@
         <v>589</v>
       </c>
       <c r="D186" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="E186" t="s">
         <v>773</v>
@@ -5885,7 +5885,7 @@
         <v>590</v>
       </c>
       <c r="D187" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="E187" t="s">
         <v>773</v>
@@ -5902,7 +5902,7 @@
         <v>591</v>
       </c>
       <c r="D188" t="s">
-        <v>713</v>
+        <v>755</v>
       </c>
       <c r="E188" t="s">
         <v>773</v>
@@ -5919,7 +5919,7 @@
         <v>592</v>
       </c>
       <c r="D189" t="s">
-        <v>752</v>
+        <v>687</v>
       </c>
       <c r="E189" t="s">
         <v>773</v>
@@ -5936,7 +5936,7 @@
         <v>593</v>
       </c>
       <c r="D190" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="E190" t="s">
         <v>773</v>
@@ -5953,7 +5953,7 @@
         <v>594</v>
       </c>
       <c r="D191" t="s">
-        <v>753</v>
+        <v>689</v>
       </c>
       <c r="E191" t="s">
         <v>773</v>
@@ -5970,7 +5970,7 @@
         <v>595</v>
       </c>
       <c r="D192" t="s">
-        <v>698</v>
+        <v>756</v>
       </c>
       <c r="E192" t="s">
         <v>773</v>
@@ -5987,7 +5987,7 @@
         <v>596</v>
       </c>
       <c r="D193" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="E193" t="s">
         <v>773</v>
@@ -6004,7 +6004,7 @@
         <v>597</v>
       </c>
       <c r="D194" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="E194" t="s">
         <v>773</v>
@@ -6021,7 +6021,7 @@
         <v>598</v>
       </c>
       <c r="D195" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E195" t="s">
         <v>773</v>
@@ -6038,7 +6038,7 @@
         <v>599</v>
       </c>
       <c r="D196" t="s">
-        <v>679</v>
+        <v>757</v>
       </c>
       <c r="E196" t="s">
         <v>773</v>
@@ -6055,7 +6055,7 @@
         <v>600</v>
       </c>
       <c r="D197" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E197" t="s">
         <v>773</v>
@@ -6072,7 +6072,7 @@
         <v>601</v>
       </c>
       <c r="D198" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E198" t="s">
         <v>773</v>
@@ -6089,7 +6089,7 @@
         <v>602</v>
       </c>
       <c r="D199" t="s">
-        <v>691</v>
+        <v>758</v>
       </c>
       <c r="E199" t="s">
         <v>773</v>
@@ -6106,7 +6106,7 @@
         <v>603</v>
       </c>
       <c r="D200" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E200" t="s">
         <v>773</v>
@@ -6140,7 +6140,7 @@
         <v>605</v>
       </c>
       <c r="D202" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="E202" t="s">
         <v>773</v>
@@ -6157,7 +6157,7 @@
         <v>606</v>
       </c>
       <c r="D203" t="s">
-        <v>683</v>
+        <v>761</v>
       </c>
       <c r="E203" t="s">
         <v>773</v>
@@ -6174,7 +6174,7 @@
         <v>607</v>
       </c>
       <c r="D204" t="s">
-        <v>686</v>
+        <v>702</v>
       </c>
       <c r="E204" t="s">
         <v>773</v>
@@ -6191,7 +6191,7 @@
         <v>608</v>
       </c>
       <c r="D205" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E205" t="s">
         <v>773</v>
@@ -6208,7 +6208,7 @@
         <v>608</v>
       </c>
       <c r="D206" t="s">
-        <v>675</v>
+        <v>762</v>
       </c>
       <c r="E206" t="s">
         <v>773</v>
@@ -6225,7 +6225,7 @@
         <v>609</v>
       </c>
       <c r="D207" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E207" t="s">
         <v>773</v>
@@ -6242,7 +6242,7 @@
         <v>610</v>
       </c>
       <c r="D208" t="s">
-        <v>652</v>
+        <v>764</v>
       </c>
       <c r="E208" t="s">
         <v>773</v>
@@ -6259,7 +6259,7 @@
         <v>611</v>
       </c>
       <c r="D209" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E209" t="s">
         <v>773</v>
@@ -6276,7 +6276,7 @@
         <v>612</v>
       </c>
       <c r="D210" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="E210" t="s">
         <v>773</v>
@@ -6293,7 +6293,7 @@
         <v>613</v>
       </c>
       <c r="D211" t="s">
-        <v>649</v>
+        <v>710</v>
       </c>
       <c r="E211" t="s">
         <v>773</v>
@@ -6310,7 +6310,7 @@
         <v>614</v>
       </c>
       <c r="D212" t="s">
-        <v>728</v>
+        <v>765</v>
       </c>
       <c r="E212" t="s">
         <v>773</v>
@@ -6327,7 +6327,7 @@
         <v>615</v>
       </c>
       <c r="D213" t="s">
-        <v>698</v>
+        <v>713</v>
       </c>
       <c r="E213" t="s">
         <v>773</v>
@@ -6344,7 +6344,7 @@
         <v>616</v>
       </c>
       <c r="D214" t="s">
-        <v>764</v>
+        <v>710</v>
       </c>
       <c r="E214" t="s">
         <v>773</v>
@@ -6361,7 +6361,7 @@
         <v>617</v>
       </c>
       <c r="D215" t="s">
-        <v>643</v>
+        <v>715</v>
       </c>
       <c r="E215" t="s">
         <v>773</v>
@@ -6378,7 +6378,7 @@
         <v>618</v>
       </c>
       <c r="D216" t="s">
-        <v>765</v>
+        <v>716</v>
       </c>
       <c r="E216" t="s">
         <v>773</v>
@@ -6395,7 +6395,7 @@
         <v>619</v>
       </c>
       <c r="D217" t="s">
-        <v>642</v>
+        <v>716</v>
       </c>
       <c r="E217" t="s">
         <v>773</v>
@@ -6412,7 +6412,7 @@
         <v>620</v>
       </c>
       <c r="D218" t="s">
-        <v>675</v>
+        <v>718</v>
       </c>
       <c r="E218" t="s">
         <v>773</v>
@@ -6429,7 +6429,7 @@
         <v>621</v>
       </c>
       <c r="D219" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="E219" t="s">
         <v>773</v>
@@ -6446,7 +6446,7 @@
         <v>622</v>
       </c>
       <c r="D220" t="s">
-        <v>661</v>
+        <v>718</v>
       </c>
       <c r="E220" t="s">
         <v>773</v>
@@ -6463,7 +6463,7 @@
         <v>623</v>
       </c>
       <c r="D221" t="s">
-        <v>766</v>
+        <v>718</v>
       </c>
       <c r="E221" t="s">
         <v>773</v>
@@ -6480,7 +6480,7 @@
         <v>623</v>
       </c>
       <c r="D222" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="E222" t="s">
         <v>773</v>
@@ -6497,7 +6497,7 @@
         <v>624</v>
       </c>
       <c r="D223" t="s">
-        <v>720</v>
+        <v>767</v>
       </c>
       <c r="E223" t="s">
         <v>773</v>
@@ -6514,7 +6514,7 @@
         <v>625</v>
       </c>
       <c r="D224" t="s">
-        <v>679</v>
+        <v>768</v>
       </c>
       <c r="E224" t="s">
         <v>773</v>
@@ -6531,7 +6531,7 @@
         <v>626</v>
       </c>
       <c r="D225" t="s">
-        <v>720</v>
+        <v>769</v>
       </c>
       <c r="E225" t="s">
         <v>773</v>
@@ -6548,7 +6548,7 @@
         <v>627</v>
       </c>
       <c r="D226" t="s">
-        <v>661</v>
+        <v>722</v>
       </c>
       <c r="E226" t="s">
         <v>773</v>
@@ -6565,7 +6565,7 @@
         <v>628</v>
       </c>
       <c r="D227" t="s">
-        <v>652</v>
+        <v>721</v>
       </c>
       <c r="E227" t="s">
         <v>773</v>
@@ -6582,7 +6582,7 @@
         <v>629</v>
       </c>
       <c r="D228" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="E228" t="s">
         <v>773</v>
@@ -6599,7 +6599,7 @@
         <v>630</v>
       </c>
       <c r="D229" t="s">
-        <v>768</v>
+        <v>721</v>
       </c>
       <c r="E229" t="s">
         <v>773</v>
@@ -6616,7 +6616,7 @@
         <v>631</v>
       </c>
       <c r="D230" t="s">
-        <v>646</v>
+        <v>721</v>
       </c>
       <c r="E230" t="s">
         <v>773</v>
@@ -6633,7 +6633,7 @@
         <v>632</v>
       </c>
       <c r="D231" t="s">
-        <v>661</v>
+        <v>732</v>
       </c>
       <c r="E231" t="s">
         <v>773</v>
@@ -6650,7 +6650,7 @@
         <v>633</v>
       </c>
       <c r="D232" t="s">
-        <v>696</v>
+        <v>729</v>
       </c>
       <c r="E232" t="s">
         <v>773</v>
@@ -6667,7 +6667,7 @@
         <v>634</v>
       </c>
       <c r="D233" t="s">
-        <v>769</v>
+        <v>736</v>
       </c>
       <c r="E233" t="s">
         <v>773</v>
@@ -6684,7 +6684,7 @@
         <v>634</v>
       </c>
       <c r="D234" t="s">
-        <v>763</v>
+        <v>736</v>
       </c>
       <c r="E234" t="s">
         <v>773</v>
@@ -6701,7 +6701,7 @@
         <v>635</v>
       </c>
       <c r="D235" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="E235" t="s">
         <v>773</v>
@@ -6718,7 +6718,7 @@
         <v>636</v>
       </c>
       <c r="D236" t="s">
-        <v>770</v>
+        <v>740</v>
       </c>
       <c r="E236" t="s">
         <v>773</v>
@@ -6735,7 +6735,7 @@
         <v>637</v>
       </c>
       <c r="D237" t="s">
-        <v>771</v>
+        <v>738</v>
       </c>
       <c r="E237" t="s">
         <v>773</v>
@@ -6752,7 +6752,7 @@
         <v>638</v>
       </c>
       <c r="D238" t="s">
-        <v>675</v>
+        <v>738</v>
       </c>
       <c r="E238" t="s">
         <v>773</v>
@@ -6769,7 +6769,7 @@
         <v>639</v>
       </c>
       <c r="D239" t="s">
-        <v>691</v>
+        <v>771</v>
       </c>
       <c r="E239" t="s">
         <v>773</v>
@@ -6786,7 +6786,7 @@
         <v>640</v>
       </c>
       <c r="D240" t="s">
-        <v>652</v>
+        <v>730</v>
       </c>
       <c r="E240" t="s">
         <v>773</v>
